--- a/GL_nais_einheiten_unique_joined_mf.xlsx
+++ b/GL_nais_einheiten_unique_joined_mf.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD2701B-04FA-43B4-A8D5-58098C8235E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC479A-25FA-43F8-94E1-3CD7DB8E459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="-5160" windowWidth="23520" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GL" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GL!$A$1:$N$920</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4358,26 +4361,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="J407" sqref="J407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>774</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>732</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>71</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>242</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>96</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>89</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>54</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>674</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>674</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42</v>
       </c>
@@ -4982,7 +4986,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>232</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>33</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>134</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>614</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>490</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>49</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>49</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>488</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>491</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>90</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>466</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>16</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>32</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>378</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>243</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>97</v>
       </c>
@@ -5787,7 +5791,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>349</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>781</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>633</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>229</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>354</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>495</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>645</v>
       </c>
@@ -6063,7 +6067,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>369</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>632</v>
       </c>
@@ -6127,7 +6131,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>371</v>
       </c>
@@ -6159,7 +6163,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>512</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>634</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>637</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>640</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>440</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>196</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>233</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>27</v>
       </c>
@@ -6394,7 +6398,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>660</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>149</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>659</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>216</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>639</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>627</v>
       </c>
@@ -6568,7 +6572,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>218</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>63</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>610</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>604</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>65</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>521</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>518</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>638</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>492</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>368</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>619</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>636</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>372</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>648</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>366</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>183</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>661</v>
       </c>
@@ -7111,7 +7115,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>651</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>188</v>
       </c>
@@ -7172,7 +7176,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>184</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>364</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>652</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>635</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>370</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>74</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>641</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>190</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>356</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>185</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>339</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>631</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>126</v>
       </c>
@@ -7582,7 +7586,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>239</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>200</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>621</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>363</v>
       </c>
@@ -7698,7 +7702,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>358</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>359</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>642</v>
       </c>
@@ -7788,7 +7792,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>353</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>72</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>365</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>357</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>646</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>657</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>653</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>656</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>649</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>655</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>129</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>384</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>650</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>690</v>
       </c>
@@ -8247,7 +8251,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>691</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>663</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>212</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>214</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>577</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>669</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>284</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>213</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>809</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>294</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>439</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -8622,7 +8626,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>662</v>
       </c>
@@ -8651,7 +8655,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>828</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>301</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -8776,7 +8780,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>299</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>136</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>481</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>712</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>241</v>
       </c>
@@ -8968,7 +8972,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>714</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>772</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>263</v>
       </c>
@@ -9061,7 +9065,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>56</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>478</v>
       </c>
@@ -9119,7 +9123,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>623</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>710</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>860</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>825</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>613</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>130</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>811</v>
       </c>
@@ -9325,7 +9329,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>73</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>81</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>520</v>
       </c>
@@ -9412,7 +9416,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>575</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>830</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>587</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>275</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>296</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>602</v>
       </c>
@@ -9592,7 +9596,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>703</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>182</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>118</v>
       </c>
@@ -9711,7 +9715,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>706</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>157</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>675</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>156</v>
       </c>
@@ -9827,7 +9831,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>771</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>167</v>
       </c>
@@ -9885,7 +9889,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>522</v>
       </c>
@@ -9914,7 +9918,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>670</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>579</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>332</v>
       </c>
@@ -10007,7 +10011,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>704</v>
       </c>
@@ -10039,7 +10043,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>287</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>70</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>711</v>
       </c>
@@ -10132,7 +10136,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>854</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>570</v>
       </c>
@@ -10190,7 +10194,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>530</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>717</v>
       </c>
@@ -10251,7 +10255,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>25</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>775</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>647</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>694</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>144</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>692</v>
       </c>
@@ -10434,7 +10438,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>853</v>
       </c>
@@ -10463,7 +10467,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>702</v>
       </c>
@@ -10492,7 +10496,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>514</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>862</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>693</v>
       </c>
@@ -10579,7 +10583,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>654</v>
       </c>
@@ -10608,7 +10612,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>502</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>852</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>47</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>603</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>673</v>
       </c>
@@ -10762,7 +10766,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>697</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>416</v>
       </c>
@@ -10826,7 +10830,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>205</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>683</v>
       </c>
@@ -10884,7 +10888,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>593</v>
       </c>
@@ -10913,7 +10917,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>685</v>
       </c>
@@ -10942,7 +10946,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>855</v>
       </c>
@@ -10971,7 +10975,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>696</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>700</v>
       </c>
@@ -11029,7 +11033,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>698</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>298</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>856</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>31</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>796</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>695</v>
       </c>
@@ -11209,7 +11213,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>95</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11270,7 +11274,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>664</v>
       </c>
@@ -11299,7 +11303,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>686</v>
       </c>
@@ -11328,7 +11332,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>786</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>508</v>
       </c>
@@ -11386,7 +11390,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>304</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>17</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>248</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>586</v>
       </c>
@@ -11514,7 +11518,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>858</v>
       </c>
@@ -11546,7 +11550,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>688</v>
       </c>
@@ -11578,7 +11582,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>247</v>
       </c>
@@ -11607,7 +11611,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>574</v>
       </c>
@@ -11636,7 +11640,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>857</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>262</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>246</v>
       </c>
@@ -11723,7 +11727,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>496</v>
       </c>
@@ -11752,7 +11756,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>150</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>565</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>201</v>
       </c>
@@ -11839,7 +11843,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>689</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>564</v>
       </c>
@@ -11897,7 +11901,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>230</v>
       </c>
@@ -11926,7 +11930,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>810</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>13</v>
       </c>
@@ -11987,7 +11991,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>392</v>
       </c>
@@ -12019,7 +12023,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>701</v>
       </c>
@@ -12051,7 +12055,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>658</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>111</v>
       </c>
@@ -12112,7 +12116,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>244</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>132</v>
       </c>
@@ -12176,7 +12180,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>671</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>668</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>665</v>
       </c>
@@ -12272,7 +12276,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>446</v>
       </c>
@@ -12304,7 +12308,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>719</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>288</v>
       </c>
@@ -12362,7 +12366,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>257</v>
       </c>
@@ -12394,7 +12398,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>79</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>226</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12487,7 +12491,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>198</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>203</v>
       </c>
@@ -12551,7 +12555,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>387</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>77</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>452</v>
       </c>
@@ -12644,7 +12648,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>594</v>
       </c>
@@ -12673,7 +12677,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>687</v>
       </c>
@@ -12702,7 +12706,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>330</v>
       </c>
@@ -12731,7 +12735,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>618</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>709</v>
       </c>
@@ -12789,7 +12793,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>297</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>186</v>
       </c>
@@ -12847,7 +12851,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>238</v>
       </c>
@@ -12876,7 +12880,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>589</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>360</v>
       </c>
@@ -12934,7 +12938,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>553</v>
       </c>
@@ -12963,7 +12967,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>681</v>
       </c>
@@ -12992,7 +12996,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>526</v>
       </c>
@@ -13021,7 +13025,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>445</v>
       </c>
@@ -13050,7 +13054,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>679</v>
       </c>
@@ -13079,7 +13083,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>291</v>
       </c>
@@ -13108,7 +13112,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>680</v>
       </c>
@@ -13137,7 +13141,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>108</v>
       </c>
@@ -13166,7 +13170,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>723</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>708</v>
       </c>
@@ -13224,7 +13228,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>682</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>667</v>
       </c>
@@ -13276,7 +13280,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>699</v>
       </c>
@@ -13308,7 +13312,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>467</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>797</v>
       </c>
@@ -13366,7 +13370,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>308</v>
       </c>
@@ -13395,7 +13399,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>391</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>162</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>566</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>837</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>544</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>449</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>463</v>
       </c>
@@ -13610,7 +13614,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>76</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>588</v>
       </c>
@@ -13668,7 +13672,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>109</v>
       </c>
@@ -13697,7 +13701,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>475</v>
       </c>
@@ -13726,7 +13730,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>749</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>746</v>
       </c>
@@ -13790,7 +13794,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>778</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>582</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>345</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>346</v>
       </c>
@@ -13906,7 +13910,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>628</v>
       </c>
@@ -13935,7 +13939,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>124</v>
       </c>
@@ -13964,7 +13968,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>347</v>
       </c>
@@ -13993,7 +13997,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>752</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>400</v>
       </c>
@@ -14051,7 +14055,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>721</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>464</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>549</v>
       </c>
@@ -14138,7 +14142,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>211</v>
       </c>
@@ -14167,7 +14171,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>381</v>
       </c>
@@ -14196,7 +14200,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>264</v>
       </c>
@@ -14225,7 +14229,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>334</v>
       </c>
@@ -14254,7 +14258,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>461</v>
       </c>
@@ -14283,7 +14287,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>836</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>428</v>
       </c>
@@ -14341,7 +14345,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>793</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>344</v>
       </c>
@@ -14405,7 +14409,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>733</v>
       </c>
@@ -14437,7 +14441,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>240</v>
       </c>
@@ -14469,7 +14473,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>397</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>758</v>
       </c>
@@ -14533,7 +14537,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>161</v>
       </c>
@@ -14565,7 +14569,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>333</v>
       </c>
@@ -14597,7 +14601,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>745</v>
       </c>
@@ -14629,7 +14633,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>600</v>
       </c>
@@ -14661,7 +14665,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>140</v>
       </c>
@@ -14693,7 +14697,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>41</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>716</v>
       </c>
@@ -14754,7 +14758,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>722</v>
       </c>
@@ -14783,7 +14787,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>788</v>
       </c>
@@ -14812,7 +14816,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>202</v>
       </c>
@@ -14841,7 +14845,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>789</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>189</v>
       </c>
@@ -14902,7 +14906,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>581</v>
       </c>
@@ -14931,7 +14935,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>753</v>
       </c>
@@ -14960,7 +14964,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>377</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>743</v>
       </c>
@@ -15021,7 +15025,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>595</v>
       </c>
@@ -15053,7 +15057,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>367</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>725</v>
       </c>
@@ -15111,7 +15115,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>770</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>231</v>
       </c>
@@ -15169,7 +15173,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>312</v>
       </c>
@@ -15198,7 +15202,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>249</v>
       </c>
@@ -15227,7 +15231,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>792</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>444</v>
       </c>
@@ -15285,7 +15289,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>571</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>101</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -15372,7 +15376,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>501</v>
       </c>
@@ -15401,7 +15405,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>313</v>
       </c>
@@ -15430,7 +15434,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>78</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>91</v>
       </c>
@@ -15488,7 +15492,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>355</v>
       </c>
@@ -15511,7 +15515,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>861</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>133</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>849</v>
       </c>
@@ -15595,7 +15599,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>761</v>
       </c>
@@ -15624,7 +15628,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>850</v>
       </c>
@@ -15653,7 +15657,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>290</v>
       </c>
@@ -15682,7 +15686,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>152</v>
       </c>
@@ -15714,7 +15718,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>763</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>274</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>769</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>677</v>
       </c>
@@ -15842,7 +15846,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>361</v>
       </c>
@@ -15874,7 +15878,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>173</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>48</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>787</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>560</v>
       </c>
@@ -15990,7 +15994,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>176</v>
       </c>
@@ -16019,7 +16023,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>799</v>
       </c>
@@ -16048,7 +16052,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>576</v>
       </c>
@@ -16077,7 +16081,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>465</v>
       </c>
@@ -16106,7 +16110,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>379</v>
       </c>
@@ -16135,7 +16139,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>534</v>
       </c>
@@ -16164,7 +16168,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>219</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>396</v>
       </c>
@@ -16228,7 +16232,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>154</v>
       </c>
@@ -16260,7 +16264,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>423</v>
       </c>
@@ -16292,7 +16296,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>527</v>
       </c>
@@ -16324,7 +16328,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>174</v>
       </c>
@@ -16356,7 +16360,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>222</v>
       </c>
@@ -16388,7 +16392,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>509</v>
       </c>
@@ -16417,7 +16421,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>86</v>
       </c>
@@ -16449,7 +16453,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>204</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>751</v>
       </c>
@@ -16513,7 +16517,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>724</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>448</v>
       </c>
@@ -16574,7 +16578,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>271</v>
       </c>
@@ -16603,7 +16607,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>765</v>
       </c>
@@ -16632,7 +16636,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>64</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>311</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>311</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>309</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>309</v>
       </c>
@@ -16765,7 +16769,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>325</v>
       </c>
@@ -16794,7 +16798,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>776</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>82</v>
       </c>
@@ -16849,7 +16853,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>324</v>
       </c>
@@ -16881,7 +16885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>727</v>
       </c>
@@ -16904,7 +16908,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>606</v>
       </c>
@@ -16936,7 +16940,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>644</v>
       </c>
@@ -16968,7 +16972,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>731</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>643</v>
       </c>
@@ -17029,7 +17033,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>744</v>
       </c>
@@ -17058,7 +17062,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>741</v>
       </c>
@@ -17087,7 +17091,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>750</v>
       </c>
@@ -17116,7 +17120,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>756</v>
       </c>
@@ -17145,7 +17149,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>93</v>
       </c>
@@ -17177,7 +17181,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>513</v>
       </c>
@@ -17206,7 +17210,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>281</v>
       </c>
@@ -17235,7 +17239,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>817</v>
       </c>
@@ -17267,7 +17271,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>94</v>
       </c>
@@ -17299,7 +17303,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>773</v>
       </c>
@@ -17328,7 +17332,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>516</v>
       </c>
@@ -17360,7 +17364,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>779</v>
       </c>
@@ -17389,7 +17393,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>320</v>
       </c>
@@ -17418,7 +17422,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>85</v>
       </c>
@@ -17447,7 +17451,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>805</v>
       </c>
@@ -17476,7 +17480,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>807</v>
       </c>
@@ -17505,7 +17509,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>113</v>
       </c>
@@ -17534,7 +17538,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>808</v>
       </c>
@@ -17563,7 +17567,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>818</v>
       </c>
@@ -17592,7 +17596,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>193</v>
       </c>
@@ -17621,7 +17625,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>678</v>
       </c>
@@ -17650,7 +17654,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>672</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>795</v>
       </c>
@@ -17708,7 +17712,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>148</v>
       </c>
@@ -17737,7 +17741,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>459</v>
       </c>
@@ -17766,7 +17770,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>559</v>
       </c>
@@ -17798,7 +17802,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>777</v>
       </c>
@@ -17830,7 +17834,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>327</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>517</v>
       </c>
@@ -17894,7 +17898,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>310</v>
       </c>
@@ -17926,7 +17930,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>180</v>
       </c>
@@ -17958,7 +17962,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>314</v>
       </c>
@@ -17987,7 +17991,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>53</v>
       </c>
@@ -18019,7 +18023,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>170</v>
       </c>
@@ -18048,7 +18052,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>507</v>
       </c>
@@ -18080,7 +18084,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>245</v>
       </c>
@@ -18112,7 +18116,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>742</v>
       </c>
@@ -18144,7 +18148,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>599</v>
       </c>
@@ -18176,7 +18180,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>622</v>
       </c>
@@ -18208,7 +18212,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>35</v>
       </c>
@@ -18240,7 +18244,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>580</v>
       </c>
@@ -18269,7 +18273,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>123</v>
       </c>
@@ -18301,7 +18305,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>331</v>
       </c>
@@ -18330,7 +18334,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>730</v>
       </c>
@@ -18359,7 +18363,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>260</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>131</v>
       </c>
@@ -18423,7 +18427,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>326</v>
       </c>
@@ -18455,7 +18459,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>785</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1</v>
       </c>
@@ -18519,7 +18523,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>827</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>676</v>
       </c>
@@ -18577,7 +18581,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>728</v>
       </c>
@@ -18606,7 +18610,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>18</v>
       </c>
@@ -18638,7 +18642,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>726</v>
       </c>
@@ -18670,7 +18674,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>107</v>
       </c>
@@ -18702,7 +18706,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>819</v>
       </c>
@@ -18731,7 +18735,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>348</v>
       </c>
@@ -18760,7 +18764,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>272</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>759</v>
       </c>
@@ -18824,7 +18828,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>207</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>747</v>
       </c>
@@ -18888,7 +18892,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>755</v>
       </c>
@@ -18920,7 +18924,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>767</v>
       </c>
@@ -18949,7 +18953,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>624</v>
       </c>
@@ -18978,7 +18982,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>630</v>
       </c>
@@ -19001,7 +19005,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>824</v>
       </c>
@@ -19033,7 +19037,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>815</v>
       </c>
@@ -19062,7 +19066,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>611</v>
       </c>
@@ -19091,7 +19095,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>399</v>
       </c>
@@ -19120,7 +19124,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>419</v>
       </c>
@@ -19149,7 +19153,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>848</v>
       </c>
@@ -19178,7 +19182,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>398</v>
       </c>
@@ -19210,7 +19214,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>816</v>
       </c>
@@ -19242,7 +19246,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>250</v>
       </c>
@@ -19274,7 +19278,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>323</v>
       </c>
@@ -19306,7 +19310,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>833</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>223</v>
       </c>
@@ -19370,7 +19374,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>252</v>
       </c>
@@ -19402,7 +19406,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>375</v>
       </c>
@@ -19434,7 +19438,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>510</v>
       </c>
@@ -19463,7 +19467,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>316</v>
       </c>
@@ -19492,7 +19496,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>832</v>
       </c>
@@ -19521,7 +19525,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>321</v>
       </c>
@@ -19550,7 +19554,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>813</v>
       </c>
@@ -19579,7 +19583,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>104</v>
       </c>
@@ -19608,7 +19612,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>531</v>
       </c>
@@ -19637,7 +19641,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>556</v>
       </c>
@@ -19666,7 +19670,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>814</v>
       </c>
@@ -19695,7 +19699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>137</v>
       </c>
@@ -19727,7 +19731,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>178</v>
       </c>
@@ -19759,7 +19763,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>210</v>
       </c>
@@ -19782,7 +19786,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>842</v>
       </c>
@@ -19805,7 +19809,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>15</v>
       </c>
@@ -19837,7 +19841,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>50</v>
       </c>
@@ -19869,7 +19873,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>114</v>
       </c>
@@ -19898,7 +19902,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>834</v>
       </c>
@@ -19930,7 +19934,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>499</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>142</v>
       </c>
@@ -19988,7 +19992,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>141</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>841</v>
       </c>
@@ -20046,7 +20050,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>62</v>
       </c>
@@ -20069,7 +20073,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>835</v>
       </c>
@@ -20092,7 +20096,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>812</v>
       </c>
@@ -20124,7 +20128,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>165</v>
       </c>
@@ -20156,7 +20160,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>374</v>
       </c>
@@ -20191,7 +20195,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>374</v>
       </c>
@@ -20211,7 +20215,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>206</v>
       </c>
@@ -20240,7 +20244,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>195</v>
       </c>
@@ -20269,7 +20273,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>258</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>5</v>
       </c>
@@ -20333,7 +20337,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>489</v>
       </c>
@@ -20362,7 +20366,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>87</v>
       </c>
@@ -20391,7 +20395,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>479</v>
       </c>
@@ -20420,7 +20424,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>139</v>
       </c>
@@ -20449,7 +20453,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>485</v>
       </c>
@@ -20478,7 +20482,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>52</v>
       </c>
@@ -20510,7 +20514,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>547</v>
       </c>
@@ -20539,7 +20543,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>457</v>
       </c>
@@ -20562,7 +20566,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>60</v>
       </c>
@@ -20594,7 +20598,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>511</v>
       </c>
@@ -20626,7 +20630,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>844</v>
       </c>
@@ -20655,7 +20659,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>255</v>
       </c>
@@ -20684,7 +20688,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>23</v>
       </c>
@@ -20716,7 +20720,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>253</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>105</v>
       </c>
@@ -20780,7 +20784,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>228</v>
       </c>
@@ -20809,7 +20813,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>537</v>
       </c>
@@ -20838,7 +20842,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>453</v>
       </c>
@@ -20867,7 +20871,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>458</v>
       </c>
@@ -20896,7 +20900,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>276</v>
       </c>
@@ -20925,7 +20929,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>406</v>
       </c>
@@ -20954,7 +20958,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>794</v>
       </c>
@@ -20983,7 +20987,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>404</v>
       </c>
@@ -21012,7 +21016,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>421</v>
       </c>
@@ -21041,7 +21045,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>535</v>
       </c>
@@ -21070,7 +21074,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>542</v>
       </c>
@@ -21099,7 +21103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>145</v>
       </c>
@@ -21128,7 +21132,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>306</v>
       </c>
@@ -21160,7 +21164,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>401</v>
       </c>
@@ -21192,7 +21196,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>405</v>
       </c>
@@ -21224,7 +21228,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>46</v>
       </c>
@@ -21256,7 +21260,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>403</v>
       </c>
@@ -21288,7 +21292,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>305</v>
       </c>
@@ -21320,7 +21324,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>236</v>
       </c>
@@ -21349,7 +21353,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>462</v>
       </c>
@@ -21378,7 +21382,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>269</v>
       </c>
@@ -21407,7 +21411,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>800</v>
       </c>
@@ -21436,7 +21440,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>460</v>
       </c>
@@ -21465,7 +21469,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>197</v>
       </c>
@@ -21497,7 +21501,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>92</v>
       </c>
@@ -21529,7 +21533,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>539</v>
       </c>
@@ -21558,7 +21562,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>402</v>
       </c>
@@ -21590,7 +21594,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>437</v>
       </c>
@@ -21619,7 +21623,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>215</v>
       </c>
@@ -21648,7 +21652,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>456</v>
       </c>
@@ -21677,7 +21681,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>551</v>
       </c>
@@ -21706,7 +21710,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>545</v>
       </c>
@@ -21735,7 +21739,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>470</v>
       </c>
@@ -21767,7 +21771,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>468</v>
       </c>
@@ -21799,7 +21803,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>234</v>
       </c>
@@ -21831,7 +21835,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>532</v>
       </c>
@@ -21863,7 +21867,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>533</v>
       </c>
@@ -21895,7 +21899,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>666</v>
       </c>
@@ -21924,7 +21928,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>430</v>
       </c>
@@ -21953,7 +21957,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>256</v>
       </c>
@@ -21985,7 +21989,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>191</v>
       </c>
@@ -22017,7 +22021,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>194</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>373</v>
       </c>
@@ -22075,7 +22079,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>505</v>
       </c>
@@ -22104,7 +22108,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>412</v>
       </c>
@@ -22133,7 +22137,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>235</v>
       </c>
@@ -22162,7 +22166,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>286</v>
       </c>
@@ -22191,7 +22195,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>427</v>
       </c>
@@ -22220,7 +22224,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>147</v>
       </c>
@@ -22249,7 +22253,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>424</v>
       </c>
@@ -22278,7 +22282,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>473</v>
       </c>
@@ -22307,7 +22311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>826</v>
       </c>
@@ -22339,7 +22343,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>335</v>
       </c>
@@ -22368,7 +22372,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>822</v>
       </c>
@@ -22397,7 +22401,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>432</v>
       </c>
@@ -22426,7 +22430,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>208</v>
       </c>
@@ -22455,7 +22459,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>153</v>
       </c>
@@ -22487,7 +22491,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>153</v>
       </c>
@@ -22507,7 +22511,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>552</v>
       </c>
@@ -22539,7 +22543,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>552</v>
       </c>
@@ -22559,7 +22563,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>340</v>
       </c>
@@ -22591,7 +22595,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>340</v>
       </c>
@@ -22611,7 +22615,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>125</v>
       </c>
@@ -22640,7 +22644,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>159</v>
       </c>
@@ -22669,7 +22673,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -22701,7 +22705,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>292</v>
       </c>
@@ -22733,7 +22737,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>472</v>
       </c>
@@ -22765,7 +22769,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>615</v>
       </c>
@@ -22797,7 +22801,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>414</v>
       </c>
@@ -22826,7 +22830,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>616</v>
       </c>
@@ -22855,7 +22859,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>435</v>
       </c>
@@ -22887,7 +22891,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>720</v>
       </c>
@@ -22916,7 +22920,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>451</v>
       </c>
@@ -22948,7 +22952,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>279</v>
       </c>
@@ -22980,7 +22984,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>609</v>
       </c>
@@ -23012,7 +23016,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>199</v>
       </c>
@@ -23041,7 +23045,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>447</v>
       </c>
@@ -23073,7 +23077,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>100</v>
       </c>
@@ -23102,7 +23106,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>386</v>
       </c>
@@ -23131,7 +23135,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>500</v>
       </c>
@@ -23160,7 +23164,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>592</v>
       </c>
@@ -23189,7 +23193,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>498</v>
       </c>
@@ -23218,7 +23222,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>418</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>426</v>
       </c>
@@ -23276,7 +23280,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>433</v>
       </c>
@@ -23308,7 +23312,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>268</v>
       </c>
@@ -23340,7 +23344,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>163</v>
       </c>
@@ -23372,7 +23376,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>413</v>
       </c>
@@ -23404,7 +23408,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>561</v>
       </c>
@@ -23430,7 +23434,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>561</v>
       </c>
@@ -23450,7 +23454,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>802</v>
       </c>
@@ -23479,7 +23483,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>803</v>
       </c>
@@ -23508,7 +23512,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>293</v>
       </c>
@@ -23540,7 +23544,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>293</v>
       </c>
@@ -23560,7 +23564,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>455</v>
       </c>
@@ -23595,7 +23599,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>455</v>
       </c>
@@ -23615,7 +23619,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>804</v>
       </c>
@@ -23647,7 +23651,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>804</v>
       </c>
@@ -23667,7 +23671,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>289</v>
       </c>
@@ -23702,7 +23706,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>289</v>
       </c>
@@ -23722,7 +23726,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>684</v>
       </c>
@@ -23754,7 +23758,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>823</v>
       </c>
@@ -23774,7 +23778,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>225</v>
       </c>
@@ -23806,7 +23810,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>528</v>
       </c>
@@ -23835,7 +23839,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>307</v>
       </c>
@@ -23864,7 +23868,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>484</v>
       </c>
@@ -23893,7 +23897,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>160</v>
       </c>
@@ -23922,7 +23926,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>66</v>
       </c>
@@ -23954,7 +23958,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>187</v>
       </c>
@@ -23986,7 +23990,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>469</v>
       </c>
@@ -24015,7 +24019,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>823</v>
       </c>
@@ -24050,7 +24054,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>823</v>
       </c>
@@ -24070,7 +24074,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>67</v>
       </c>
@@ -24102,7 +24106,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>266</v>
       </c>
@@ -24134,7 +24138,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>608</v>
       </c>
@@ -24166,7 +24170,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>267</v>
       </c>
@@ -24195,7 +24199,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>434</v>
       </c>
@@ -24224,7 +24228,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>30</v>
       </c>
@@ -24253,7 +24257,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>273</v>
       </c>
@@ -24285,7 +24289,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>417</v>
       </c>
@@ -24317,7 +24321,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>821</v>
       </c>
@@ -24349,7 +24353,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>847</v>
       </c>
@@ -24381,7 +24385,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>573</v>
       </c>
@@ -24413,7 +24417,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>221</v>
       </c>
@@ -24445,7 +24449,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>546</v>
       </c>
@@ -24474,7 +24478,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>408</v>
       </c>
@@ -24503,7 +24507,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>541</v>
       </c>
@@ -24532,7 +24536,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>303</v>
       </c>
@@ -24561,7 +24565,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>476</v>
       </c>
@@ -24590,7 +24594,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>410</v>
       </c>
@@ -24619,7 +24623,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>550</v>
       </c>
@@ -24648,7 +24652,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>227</v>
       </c>
@@ -24677,7 +24681,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>590</v>
       </c>
@@ -24706,7 +24710,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>251</v>
       </c>
@@ -24735,7 +24739,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>425</v>
       </c>
@@ -24758,7 +24762,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>34</v>
       </c>
@@ -24793,7 +24797,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>34</v>
       </c>
@@ -24813,7 +24817,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>477</v>
       </c>
@@ -24848,7 +24852,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>477</v>
       </c>
@@ -24868,7 +24872,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>350</v>
       </c>
@@ -24903,7 +24907,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>350</v>
       </c>
@@ -24923,7 +24927,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>411</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>411</v>
       </c>
@@ -24978,7 +24982,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>436</v>
       </c>
@@ -25010,7 +25014,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>436</v>
       </c>
@@ -25030,7 +25034,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>155</v>
       </c>
@@ -25062,7 +25066,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>155</v>
       </c>
@@ -25082,7 +25086,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>175</v>
       </c>
@@ -25114,7 +25118,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>175</v>
       </c>
@@ -25134,7 +25138,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>543</v>
       </c>
@@ -25163,7 +25167,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>536</v>
       </c>
@@ -25192,7 +25196,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>431</v>
       </c>
@@ -25221,7 +25225,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>117</v>
       </c>
@@ -25253,7 +25257,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>443</v>
       </c>
@@ -25285,7 +25289,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>548</v>
       </c>
@@ -25317,7 +25321,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>617</v>
       </c>
@@ -25346,7 +25350,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>380</v>
       </c>
@@ -25378,7 +25382,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>380</v>
       </c>
@@ -25398,7 +25402,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>68</v>
       </c>
@@ -25433,7 +25437,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>68</v>
       </c>
@@ -25453,7 +25457,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>278</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>278</v>
       </c>
@@ -25508,7 +25512,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>270</v>
       </c>
@@ -25540,7 +25544,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>270</v>
       </c>
@@ -25560,7 +25564,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>99</v>
       </c>
@@ -25592,7 +25596,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>99</v>
       </c>
@@ -25612,7 +25616,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>209</v>
       </c>
@@ -25647,7 +25651,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>209</v>
       </c>
@@ -25667,7 +25671,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>450</v>
       </c>
@@ -25702,7 +25706,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>450</v>
       </c>
@@ -25722,7 +25726,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>409</v>
       </c>
@@ -25757,7 +25761,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>409</v>
       </c>
@@ -25777,7 +25781,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>220</v>
       </c>
@@ -25809,7 +25813,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>220</v>
       </c>
@@ -25829,7 +25833,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>429</v>
       </c>
@@ -25861,7 +25865,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>429</v>
       </c>
@@ -25881,7 +25885,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>474</v>
       </c>
@@ -25910,7 +25914,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>596</v>
       </c>
@@ -25939,7 +25943,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>302</v>
       </c>
@@ -25968,7 +25972,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>300</v>
       </c>
@@ -25997,7 +26001,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>859</v>
       </c>
@@ -26023,7 +26027,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>859</v>
       </c>
@@ -26043,7 +26047,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>838</v>
       </c>
@@ -26069,7 +26073,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>838</v>
       </c>
@@ -26089,7 +26093,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>441</v>
       </c>
@@ -26121,7 +26125,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>422</v>
       </c>
@@ -26156,7 +26160,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>422</v>
       </c>
@@ -26176,7 +26180,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>51</v>
       </c>
@@ -26211,7 +26215,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>51</v>
       </c>
@@ -26231,7 +26235,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>503</v>
       </c>
@@ -26260,7 +26264,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>166</v>
       </c>
@@ -26292,7 +26296,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>166</v>
       </c>
@@ -26312,7 +26316,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>342</v>
       </c>
@@ -26347,7 +26351,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>342</v>
       </c>
@@ -26367,7 +26371,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>179</v>
       </c>
@@ -26396,7 +26400,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>497</v>
       </c>
@@ -26425,7 +26429,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>737</v>
       </c>
@@ -26454,7 +26458,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>28</v>
       </c>
@@ -26486,7 +26490,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>584</v>
       </c>
@@ -26515,7 +26519,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>583</v>
       </c>
@@ -26544,7 +26548,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>846</v>
       </c>
@@ -26576,7 +26580,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>14</v>
       </c>
@@ -26608,7 +26612,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>597</v>
       </c>
@@ -26637,7 +26641,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>318</v>
       </c>
@@ -26666,7 +26670,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>523</v>
       </c>
@@ -26695,7 +26699,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>601</v>
       </c>
@@ -26724,7 +26728,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -26762,7 +26766,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>0</v>
       </c>
@@ -26782,7 +26786,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>506</v>
       </c>
@@ -26817,7 +26821,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>506</v>
       </c>
@@ -26834,7 +26838,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>791</v>
       </c>
@@ -26863,7 +26867,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>26</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>585</v>
       </c>
@@ -26921,7 +26925,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>169</v>
       </c>
@@ -26950,7 +26954,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>567</v>
       </c>
@@ -26979,7 +26983,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>254</v>
       </c>
@@ -27008,7 +27012,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>568</v>
       </c>
@@ -27037,7 +27041,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>569</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>569</v>
       </c>
@@ -27089,7 +27093,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>715</v>
       </c>
@@ -27121,7 +27125,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>715</v>
       </c>
@@ -27141,7 +27145,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>483</v>
       </c>
@@ -27173,7 +27177,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>483</v>
       </c>
@@ -27193,7 +27197,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>557</v>
       </c>
@@ -27225,7 +27229,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>557</v>
       </c>
@@ -27245,7 +27249,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>385</v>
       </c>
@@ -27280,7 +27284,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>385</v>
       </c>
@@ -27300,7 +27304,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>127</v>
       </c>
@@ -27335,7 +27339,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>127</v>
       </c>
@@ -27355,7 +27359,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>420</v>
       </c>
@@ -27387,7 +27391,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>420</v>
       </c>
@@ -27407,7 +27411,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>831</v>
       </c>
@@ -27445,7 +27449,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>831</v>
       </c>
@@ -27465,7 +27469,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>554</v>
       </c>
@@ -27497,7 +27501,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>554</v>
       </c>
@@ -27517,7 +27521,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>98</v>
       </c>
@@ -27546,7 +27550,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>295</v>
       </c>
@@ -27575,7 +27579,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>343</v>
       </c>
@@ -27604,7 +27608,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>504</v>
       </c>
@@ -27633,7 +27637,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>283</v>
       </c>
@@ -27665,7 +27669,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>283</v>
       </c>
@@ -27685,7 +27689,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>389</v>
       </c>
@@ -27714,7 +27718,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>558</v>
       </c>
@@ -27746,7 +27750,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>558</v>
       </c>
@@ -27766,7 +27770,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>29</v>
       </c>
@@ -27795,7 +27799,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>122</v>
       </c>
@@ -27824,7 +27828,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>482</v>
       </c>
@@ -27856,7 +27860,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>482</v>
       </c>
@@ -27876,7 +27880,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>762</v>
       </c>
@@ -27905,7 +27909,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>620</v>
       </c>
@@ -27937,7 +27941,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>415</v>
       </c>
@@ -27969,7 +27973,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>754</v>
       </c>
@@ -28001,7 +28005,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>164</v>
       </c>
@@ -28033,7 +28037,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>146</v>
       </c>
@@ -28062,7 +28066,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>83</v>
       </c>
@@ -28091,7 +28095,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>494</v>
       </c>
@@ -28123,7 +28127,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>740</v>
       </c>
@@ -28155,7 +28159,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>524</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>341</v>
       </c>
@@ -28213,7 +28217,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>69</v>
       </c>
@@ -28242,7 +28246,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>172</v>
       </c>
@@ -28271,7 +28275,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>407</v>
       </c>
@@ -28300,7 +28304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>337</v>
       </c>
@@ -28329,7 +28333,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>736</v>
       </c>
@@ -28358,7 +28362,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>329</v>
       </c>
@@ -28387,7 +28391,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>612</v>
       </c>
@@ -28416,7 +28420,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>739</v>
       </c>
@@ -28445,7 +28449,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>840</v>
       </c>
@@ -28474,7 +28478,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>103</v>
       </c>
@@ -28506,7 +28510,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>59</v>
       </c>
@@ -28535,7 +28539,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>158</v>
       </c>
@@ -28564,7 +28568,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>839</v>
       </c>
@@ -28593,7 +28597,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>738</v>
       </c>
@@ -28622,7 +28626,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>259</v>
       </c>
@@ -28651,7 +28655,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>555</v>
       </c>
@@ -28683,7 +28687,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>277</v>
       </c>
@@ -28715,7 +28719,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>480</v>
       </c>
@@ -28747,7 +28751,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>760</v>
       </c>
@@ -28779,7 +28783,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>84</v>
       </c>
@@ -28811,7 +28815,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>626</v>
       </c>
@@ -28843,7 +28847,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>110</v>
       </c>
@@ -28875,7 +28879,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>336</v>
       </c>
@@ -28907,7 +28911,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>168</v>
       </c>
@@ -28936,7 +28940,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>757</v>
       </c>
@@ -28965,7 +28969,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>790</v>
       </c>
@@ -28997,7 +29001,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>237</v>
       </c>
@@ -29029,7 +29033,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>280</v>
       </c>
@@ -29061,7 +29065,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>177</v>
       </c>
@@ -29093,7 +29097,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>598</v>
       </c>
@@ -29125,7 +29129,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>519</v>
       </c>
@@ -29157,7 +29161,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>4</v>
       </c>
@@ -29189,7 +29193,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>572</v>
       </c>
@@ -29218,7 +29222,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>438</v>
       </c>
@@ -29250,7 +29254,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>748</v>
       </c>
@@ -29282,7 +29286,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>116</v>
       </c>
@@ -29314,7 +29318,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>338</v>
       </c>
@@ -29343,7 +29347,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>106</v>
       </c>
@@ -29375,7 +29379,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>285</v>
       </c>
@@ -29404,7 +29408,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>317</v>
       </c>
@@ -29433,7 +29437,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>515</v>
       </c>
@@ -29462,7 +29466,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>766</v>
       </c>
@@ -29491,7 +29495,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>442</v>
       </c>
@@ -29520,7 +29524,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>319</v>
       </c>
@@ -29549,7 +29553,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>282</v>
       </c>
@@ -29578,7 +29582,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>525</v>
       </c>
@@ -29607,7 +29611,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>798</v>
       </c>
@@ -29636,7 +29640,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>540</v>
       </c>
@@ -29665,7 +29669,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>471</v>
       </c>
@@ -29694,7 +29698,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>591</v>
       </c>
@@ -29723,7 +29727,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>315</v>
       </c>
@@ -29755,7 +29759,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>563</v>
       </c>
@@ -29787,7 +29791,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>735</v>
       </c>
@@ -29819,7 +29823,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>734</v>
       </c>
@@ -29851,7 +29855,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>605</v>
       </c>
@@ -29883,7 +29887,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>388</v>
       </c>
@@ -29915,7 +29919,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>845</v>
       </c>
@@ -29944,7 +29948,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>88</v>
       </c>
@@ -29973,7 +29977,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>783</v>
       </c>
@@ -30002,7 +30006,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>119</v>
       </c>
@@ -30031,7 +30035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>629</v>
       </c>
@@ -30060,7 +30064,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>393</v>
       </c>
@@ -30089,7 +30093,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>382</v>
       </c>
@@ -30118,7 +30122,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>390</v>
       </c>
@@ -30147,7 +30151,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>192</v>
       </c>
@@ -30176,7 +30180,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>394</v>
       </c>
@@ -30205,7 +30209,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>115</v>
       </c>
@@ -30237,7 +30241,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>578</v>
       </c>
@@ -30269,7 +30273,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>217</v>
       </c>
@@ -30301,7 +30305,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>820</v>
       </c>
@@ -30333,7 +30337,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>383</v>
       </c>
@@ -30365,7 +30369,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>112</v>
       </c>
@@ -30397,7 +30401,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>376</v>
       </c>
@@ -30429,7 +30433,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>22</v>
       </c>
@@ -30461,7 +30465,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>395</v>
       </c>
@@ -30493,7 +30497,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>181</v>
       </c>
@@ -30525,7 +30529,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>261</v>
       </c>
@@ -30557,7 +30561,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>102</v>
       </c>
@@ -30586,7 +30590,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>493</v>
       </c>
@@ -30615,7 +30619,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>843</v>
       </c>
@@ -30644,7 +30648,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>768</v>
       </c>
@@ -30673,7 +30677,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>625</v>
       </c>
@@ -30702,7 +30706,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>780</v>
       </c>
@@ -30731,7 +30735,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>486</v>
       </c>
@@ -30760,7 +30764,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>487</v>
       </c>
@@ -30789,7 +30793,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>829</v>
       </c>
@@ -30818,7 +30822,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>764</v>
       </c>
@@ -30850,7 +30854,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>713</v>
       </c>
@@ -30882,7 +30886,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>352</v>
       </c>
@@ -30914,7 +30918,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>19</v>
       </c>
@@ -30946,7 +30950,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>454</v>
       </c>
@@ -30975,7 +30979,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>55</v>
       </c>
@@ -31007,7 +31011,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>705</v>
       </c>
@@ -31036,7 +31040,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>151</v>
       </c>
@@ -31062,7 +31066,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>784</v>
       </c>
@@ -31088,7 +31092,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>806</v>
       </c>
@@ -31117,7 +31121,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>806</v>
       </c>
@@ -31137,7 +31141,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>10</v>
       </c>
@@ -31169,7 +31173,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>707</v>
       </c>
@@ -31198,7 +31202,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>128</v>
       </c>
@@ -31227,7 +31231,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>12</v>
       </c>
@@ -31256,7 +31260,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>538</v>
       </c>
@@ -31288,7 +31292,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>538</v>
       </c>
@@ -31308,7 +31312,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>718</v>
       </c>
@@ -31337,7 +31341,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>351</v>
       </c>
@@ -31366,7 +31370,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>328</v>
       </c>
@@ -31395,7 +31399,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>322</v>
       </c>
@@ -31424,7 +31428,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>562</v>
       </c>
@@ -31453,7 +31457,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>729</v>
       </c>
@@ -31482,7 +31486,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>61</v>
       </c>
@@ -31511,7 +31515,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>121</v>
       </c>
@@ -31540,7 +31544,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>851</v>
       </c>
@@ -31572,7 +31576,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>851</v>
       </c>
@@ -31592,7 +31596,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>529</v>
       </c>
@@ -31621,7 +31625,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>38</v>
       </c>
@@ -31653,7 +31657,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>801</v>
       </c>
@@ -31685,7 +31689,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>782</v>
       </c>
@@ -31715,6 +31719,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N920" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M920">
     <sortCondition ref="C2:C920"/>
   </sortState>
@@ -31731,49 +31742,49 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1190</v>
       </c>
